--- a/RxNorm/Opioid/RandomOpioidList.xlsx
+++ b/RxNorm/Opioid/RandomOpioidList.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\opiod_list\Atomatic_Code_Sets\RxNorm\Opioid\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFB3304-2BDE-44E5-AA69-6250D020DE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3105" yWindow="2790" windowWidth="29445" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="138">
   <si>
     <t>rxcui</t>
   </si>
@@ -410,13 +416,31 @@
   </si>
   <si>
     <t>tramadol</t>
+  </si>
+  <si>
+    <t>anileridine</t>
+  </si>
+  <si>
+    <t>anileridine hydrochloride</t>
+  </si>
+  <si>
+    <t>pholcodine 2 MG/ML</t>
+  </si>
+  <si>
+    <t>pholcodine</t>
+  </si>
+  <si>
+    <t>pholcodine Oral Solution</t>
+  </si>
+  <si>
+    <t>methadyl acetate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,24 +492,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -523,7 +556,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -557,6 +590,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -591,9 +625,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -766,14 +801,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -787,7 +824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1723210</v>
       </c>
@@ -801,7 +838,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>370546</v>
       </c>
@@ -815,7 +852,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>594</v>
       </c>
@@ -829,1179 +866,1249 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>594</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>17933</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
         <v>88</v>
       </c>
       <c r="D5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>235413</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>594</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>2001363</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>89</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>2001364</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>90</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>2639024</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>91</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>1716072</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>92</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>886621</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>92</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>1151379</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>93</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>1356798</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>91</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>830707</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>94</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>250879</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>86</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>332475</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>92</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>22713</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>88</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>1182810</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>89</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>1182809</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>89</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>151196</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>95</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>757136</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>87</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D22" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>218071</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>94</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D23" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>1179657</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>89</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>1156165</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>93</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>392677</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>95</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>1007286</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>95</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>2660997</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
         <v>96</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>1735007</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" t="s">
         <v>86</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>668367</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>86</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D30" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>1160890</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>93</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>3304</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>31</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>88</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>1595748</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>90</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D33" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>756712</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>97</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D34" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>358355</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>34</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>94</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>897752</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>35</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>92</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>236913</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>36</v>
-      </c>
-      <c r="C35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
-        <v>236914</v>
-      </c>
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
-        <v>237005</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
       </c>
       <c r="C37" t="s">
         <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>82043</v>
+        <v>236914</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
         <v>98</v>
       </c>
       <c r="D38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>237005</v>
+      </c>
+      <c r="B39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
-        <v>402519</v>
-      </c>
-      <c r="B39" t="s">
-        <v>40</v>
-      </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>402519</v>
+        <v>82043</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>98</v>
       </c>
       <c r="D40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>402519</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>402519</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>1163480</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>41</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C43" t="s">
         <v>93</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D43" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>197873</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>42</v>
-      </c>
-      <c r="C42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
-        <v>861521</v>
-      </c>
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44">
-        <v>860792</v>
-      </c>
-      <c r="B44" t="s">
-        <v>44</v>
       </c>
       <c r="C44" t="s">
         <v>86</v>
       </c>
       <c r="D44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>861521</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>860792</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>106505</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
         <v>45</v>
-      </c>
-      <c r="C45" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46">
-        <v>6761</v>
-      </c>
-      <c r="B46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47">
-        <v>864978</v>
-      </c>
-      <c r="B47" t="s">
-        <v>47</v>
       </c>
       <c r="C47" t="s">
         <v>86</v>
       </c>
       <c r="D47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>6761</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>864978</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>6814</v>
+      </c>
+      <c r="B50" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>202370</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B51" t="s">
         <v>48</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C51" t="s">
         <v>94</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D51" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>892652</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B52" t="s">
         <v>49</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C52" t="s">
         <v>90</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D52" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>895185</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B53" t="s">
         <v>50</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C53" t="s">
         <v>86</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D53" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>1866551</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B54" t="s">
         <v>51</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C54" t="s">
         <v>86</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D54" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>372986</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B55" t="s">
         <v>52</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C55" t="s">
         <v>87</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D55" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>32009</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B56" t="s">
         <v>53</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C56" t="s">
         <v>88</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D56" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>32009</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B57" t="s">
         <v>53</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C57" t="s">
         <v>88</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D57" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>816701</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B58" t="s">
         <v>54</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C58" t="s">
         <v>95</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D58" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>816701</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B59" t="s">
         <v>54</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C59" t="s">
         <v>95</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D59" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>2392239</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B60" t="s">
         <v>55</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C60" t="s">
         <v>90</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D60" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>2618963</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B61" t="s">
         <v>56</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C61" t="s">
         <v>97</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D61" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>312107</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B62" t="s">
         <v>57</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C62" t="s">
         <v>86</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D62" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>312104</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B63" t="s">
         <v>58</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C63" t="s">
         <v>86</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D63" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>1049598</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B64" t="s">
         <v>59</v>
-      </c>
-      <c r="C61" t="s">
-        <v>92</v>
-      </c>
-      <c r="D61" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62">
-        <v>216903</v>
-      </c>
-      <c r="B62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" t="s">
-        <v>94</v>
-      </c>
-      <c r="D62" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63">
-        <v>643113</v>
-      </c>
-      <c r="B63" t="s">
-        <v>61</v>
-      </c>
-      <c r="C63" t="s">
-        <v>87</v>
-      </c>
-      <c r="D63" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64">
-        <v>977928</v>
-      </c>
-      <c r="B64" t="s">
-        <v>62</v>
       </c>
       <c r="C64" t="s">
         <v>92</v>
       </c>
       <c r="D64" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>216903</v>
+      </c>
+      <c r="B65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>643113</v>
+      </c>
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D66" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>977928</v>
+      </c>
+      <c r="B67" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>1164115</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B68" t="s">
         <v>63</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C68" t="s">
         <v>93</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D68" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>360847</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B69" t="s">
         <v>64</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C69" t="s">
         <v>92</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D69" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>32926</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B70" t="s">
         <v>65</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C70" t="s">
         <v>88</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D70" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>690713</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B71" t="s">
         <v>66</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C71" t="s">
         <v>95</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D71" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>1151902</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B72" t="s">
         <v>67</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C72" t="s">
         <v>93</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D72" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>312288</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B73" t="s">
         <v>68</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C73" t="s">
         <v>86</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D73" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>8119</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B74" t="s">
         <v>69</v>
-      </c>
-      <c r="C71" t="s">
-        <v>88</v>
-      </c>
-      <c r="D71" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72">
-        <v>104979</v>
-      </c>
-      <c r="B72" t="s">
-        <v>70</v>
-      </c>
-      <c r="C72" t="s">
-        <v>98</v>
-      </c>
-      <c r="D72" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73">
-        <v>106508</v>
-      </c>
-      <c r="B73" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" t="s">
-        <v>98</v>
-      </c>
-      <c r="D73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74">
-        <v>8143</v>
-      </c>
-      <c r="B74" t="s">
-        <v>72</v>
       </c>
       <c r="C74" t="s">
         <v>88</v>
       </c>
       <c r="D74" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>104979</v>
+      </c>
+      <c r="B75" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" t="s">
+        <v>98</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>106508</v>
+      </c>
+      <c r="B76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" t="s">
+        <v>98</v>
+      </c>
+      <c r="D76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>335432</v>
+      </c>
+      <c r="B77" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77" t="s">
+        <v>92</v>
+      </c>
+      <c r="D77" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>373442</v>
+      </c>
+      <c r="B78" t="s">
+        <v>136</v>
+      </c>
+      <c r="C78" t="s">
+        <v>87</v>
+      </c>
+      <c r="D78" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>8143</v>
+      </c>
+      <c r="B79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>8354</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B80" t="s">
         <v>73</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C80" t="s">
         <v>88</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D80" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>689541</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B81" t="s">
         <v>74</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C81" t="s">
         <v>95</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D81" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>1008786</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B82" t="s">
         <v>75</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C82" t="s">
         <v>95</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D82" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>236540</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B83" t="s">
         <v>76</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C83" t="s">
         <v>98</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D83" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>153379</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B84" t="s">
         <v>77</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C84" t="s">
         <v>94</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D84" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>2103199</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B85" t="s">
         <v>78</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C85" t="s">
         <v>90</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D85" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>2103194</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B86" t="s">
         <v>79</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C86" t="s">
         <v>91</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D86" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>1178796</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B87" t="s">
         <v>80</v>
-      </c>
-      <c r="C82" t="s">
-        <v>89</v>
-      </c>
-      <c r="D82" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83">
-        <v>1148802</v>
-      </c>
-      <c r="B83" t="s">
-        <v>81</v>
-      </c>
-      <c r="C83" t="s">
-        <v>92</v>
-      </c>
-      <c r="D83" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84">
-        <v>1986806</v>
-      </c>
-      <c r="B84" t="s">
-        <v>82</v>
-      </c>
-      <c r="C84" t="s">
-        <v>88</v>
-      </c>
-      <c r="D84" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85">
-        <v>82109</v>
-      </c>
-      <c r="B85" t="s">
-        <v>83</v>
-      </c>
-      <c r="C85" t="s">
-        <v>98</v>
-      </c>
-      <c r="D85" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86">
-        <v>82109</v>
-      </c>
-      <c r="B86" t="s">
-        <v>83</v>
-      </c>
-      <c r="C86" t="s">
-        <v>98</v>
-      </c>
-      <c r="D86" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87">
-        <v>2588481</v>
-      </c>
-      <c r="B87" t="s">
-        <v>84</v>
       </c>
       <c r="C87" t="s">
         <v>89</v>
       </c>
       <c r="D87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1148802</v>
+      </c>
+      <c r="B88" t="s">
+        <v>81</v>
+      </c>
+      <c r="C88" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1986806</v>
+      </c>
+      <c r="B89" t="s">
+        <v>82</v>
+      </c>
+      <c r="C89" t="s">
+        <v>88</v>
+      </c>
+      <c r="D89" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>82109</v>
+      </c>
+      <c r="B90" t="s">
+        <v>83</v>
+      </c>
+      <c r="C90" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>82109</v>
+      </c>
+      <c r="B91" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91" t="s">
+        <v>98</v>
+      </c>
+      <c r="D91" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2588481</v>
+      </c>
+      <c r="B92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C92" t="s">
+        <v>89</v>
+      </c>
+      <c r="D92" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>374169</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B93" t="s">
         <v>85</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C93" t="s">
         <v>87</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D93" t="s">
         <v>131</v>
       </c>
     </row>
